--- a/resources/example/多条新闻/样例.xlsx
+++ b/resources/example/多条新闻/样例.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NewsClassifier\example\多条新闻\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\NewsClassifier\resources\example\多条新闻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57126B9F-3EFF-457A-B2C9-50A7A1B3EB11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E69119B-DA9A-4331-83D1-4A282D095E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2808" yWindow="0" windowWidth="16560" windowHeight="6048" xr2:uid="{32B2657A-1561-48BC-B15C-9256035F3F92}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>新华网南京6月25日电（庞雪汀）6月24日，2021年江苏普通高校招生第一阶段省录取控制分数线公布，其中首次出现了“特殊类型招生”。对此，江苏省教育考试院进行了权威解读。
 　　据介绍，江苏高考录取中的“特殊类型招生”指的是强基计划、综合评价、高校专项、地方专项、高水平艺术团、军校招生等在录取中既要参考高考成绩，又有特殊要求的招生项目。
@@ -73,9 +73,6 @@
     <t>小捣蛋新闻09</t>
   </si>
   <si>
-    <t>小捣蛋新闻10</t>
-  </si>
-  <si>
     <t>财经</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +102,6 @@
   </si>
   <si>
     <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -483,7 +476,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -507,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -518,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -529,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -540,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -551,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -562,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -573,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -584,22 +577,14 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
